--- a/Docs/N2048.xlsx
+++ b/Docs/N2048.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Develop\GoHub\Research-Go-Cpp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Develop\GoHub\Research-Go-Cpp\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19698" yWindow="0" windowWidth="22110" windowHeight="9402"/>
+    <workbookView xWindow="20640" yWindow="0" windowWidth="22110" windowHeight="9402"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="4" r:id="rId1"/>
     <sheet name="Go" sheetId="1" r:id="rId2"/>
     <sheet name="C++" sheetId="2" r:id="rId3"/>
     <sheet name="Execution Time Records" sheetId="3" r:id="rId4"/>
+    <sheet name="Previous Code" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Execution Time Records'!$L$19:$N$19</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Processors(NP)</t>
   </si>
@@ -21228,7 +21229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -23789,7 +23792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T116"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -30133,4 +30138,2861 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B18:J116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:D50" si="0">AVERAGE(E20:J20)</f>
+        <v>13255.8</v>
+      </c>
+      <c r="E20" s="22">
+        <v>13377</v>
+      </c>
+      <c r="F20" s="22">
+        <v>13221</v>
+      </c>
+      <c r="G20" s="22">
+        <v>13996</v>
+      </c>
+      <c r="H20" s="22">
+        <v>12947</v>
+      </c>
+      <c r="I20" s="22">
+        <v>12738</v>
+      </c>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>12329</v>
+      </c>
+      <c r="E21" s="3">
+        <v>12426</v>
+      </c>
+      <c r="F21" s="3">
+        <v>12358</v>
+      </c>
+      <c r="G21" s="3">
+        <v>12332</v>
+      </c>
+      <c r="H21" s="3">
+        <v>12278</v>
+      </c>
+      <c r="I21" s="3">
+        <v>12251</v>
+      </c>
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:C32" si="1">C21*2</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>11571</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11689</v>
+      </c>
+      <c r="F22" s="3">
+        <v>11517</v>
+      </c>
+      <c r="G22" s="3">
+        <v>11575</v>
+      </c>
+      <c r="H22" s="3">
+        <v>11450</v>
+      </c>
+      <c r="I22" s="3">
+        <v>11624</v>
+      </c>
+      <c r="J22" s="37"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>9857.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9864</v>
+      </c>
+      <c r="F23" s="3">
+        <v>9801</v>
+      </c>
+      <c r="G23" s="3">
+        <v>9763</v>
+      </c>
+      <c r="H23" s="3">
+        <v>9679</v>
+      </c>
+      <c r="I23" s="3">
+        <v>10180</v>
+      </c>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>7806.4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7767</v>
+      </c>
+      <c r="F24" s="3">
+        <v>7787</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7910</v>
+      </c>
+      <c r="H24" s="3">
+        <v>7792</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7776</v>
+      </c>
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>7317.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7369</v>
+      </c>
+      <c r="F25" s="3">
+        <v>7252</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7257</v>
+      </c>
+      <c r="H25" s="3">
+        <v>7446</v>
+      </c>
+      <c r="I25" s="3">
+        <v>7262</v>
+      </c>
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>6991</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7041</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6902</v>
+      </c>
+      <c r="G26" s="3">
+        <v>7021</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6960</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7031</v>
+      </c>
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>7204.6</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7220</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7290</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7302</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7196</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7015</v>
+      </c>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>7186.2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>7145</v>
+      </c>
+      <c r="F28" s="3">
+        <v>7098</v>
+      </c>
+      <c r="G28" s="3">
+        <v>7272</v>
+      </c>
+      <c r="H28" s="3">
+        <v>7238</v>
+      </c>
+      <c r="I28" s="3">
+        <v>7178</v>
+      </c>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>7798</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7653</v>
+      </c>
+      <c r="F29" s="3">
+        <v>7925</v>
+      </c>
+      <c r="G29" s="3">
+        <v>7819</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7777</v>
+      </c>
+      <c r="I29" s="3">
+        <v>7816</v>
+      </c>
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>9022</v>
+      </c>
+      <c r="E30" s="3">
+        <v>9375</v>
+      </c>
+      <c r="F30" s="3">
+        <v>8873</v>
+      </c>
+      <c r="G30" s="3">
+        <v>8942</v>
+      </c>
+      <c r="H30" s="3">
+        <v>8978</v>
+      </c>
+      <c r="I30" s="3">
+        <v>8942</v>
+      </c>
+      <c r="J30" s="37"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>12030</v>
+      </c>
+      <c r="E31" s="3">
+        <v>11978</v>
+      </c>
+      <c r="F31" s="3">
+        <v>11829</v>
+      </c>
+      <c r="G31" s="3">
+        <v>11889</v>
+      </c>
+      <c r="H31" s="3">
+        <v>12101</v>
+      </c>
+      <c r="I31" s="3">
+        <v>12353</v>
+      </c>
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>55038.8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>58402</v>
+      </c>
+      <c r="F32" s="3">
+        <v>55832</v>
+      </c>
+      <c r="G32" s="3">
+        <v>53118</v>
+      </c>
+      <c r="H32" s="3">
+        <v>55407</v>
+      </c>
+      <c r="I32" s="3">
+        <v>52435</v>
+      </c>
+      <c r="J32" s="37"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>12338.2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12328</v>
+      </c>
+      <c r="F33" s="3">
+        <v>12355</v>
+      </c>
+      <c r="G33" s="3">
+        <v>12904</v>
+      </c>
+      <c r="H33" s="3">
+        <v>12216</v>
+      </c>
+      <c r="I33" s="3">
+        <v>11888</v>
+      </c>
+      <c r="J33" s="37"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" ref="C34:C44" si="2">C33*2</f>
+        <v>2</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>10944.6</v>
+      </c>
+      <c r="E34" s="3">
+        <v>11070</v>
+      </c>
+      <c r="F34" s="3">
+        <v>11024</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10745</v>
+      </c>
+      <c r="H34" s="3">
+        <v>11019</v>
+      </c>
+      <c r="I34" s="3">
+        <v>10865</v>
+      </c>
+      <c r="J34" s="37"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>7716.2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7536</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7768</v>
+      </c>
+      <c r="G35" s="3">
+        <v>7752</v>
+      </c>
+      <c r="H35" s="3">
+        <v>7704</v>
+      </c>
+      <c r="I35" s="3">
+        <v>7821</v>
+      </c>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>5344.8</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5294</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5378</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5394</v>
+      </c>
+      <c r="H36" s="3">
+        <v>5337</v>
+      </c>
+      <c r="I36" s="3">
+        <v>5321</v>
+      </c>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
+        <v>4251</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4107</v>
+      </c>
+      <c r="F37" s="3">
+        <v>4951</v>
+      </c>
+      <c r="G37" s="3">
+        <v>4207</v>
+      </c>
+      <c r="H37" s="3">
+        <v>3944</v>
+      </c>
+      <c r="I37" s="3">
+        <v>4046</v>
+      </c>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>3725.2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3645</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3774</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3974</v>
+      </c>
+      <c r="H38" s="3">
+        <v>3564</v>
+      </c>
+      <c r="I38" s="3">
+        <v>3669</v>
+      </c>
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
+        <v>3636.8</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3773</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3615</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3509</v>
+      </c>
+      <c r="H39" s="3">
+        <v>3718</v>
+      </c>
+      <c r="I39" s="3">
+        <v>3569</v>
+      </c>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="0"/>
+        <v>3634.6</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3752</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3510</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3533</v>
+      </c>
+      <c r="H40" s="3">
+        <v>3691</v>
+      </c>
+      <c r="I40" s="3">
+        <v>3687</v>
+      </c>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="0"/>
+        <v>3832.6</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3930</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3753</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3757</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3975</v>
+      </c>
+      <c r="I41" s="3">
+        <v>3748</v>
+      </c>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="0"/>
+        <v>4514.6000000000004</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4727</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4437</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4455</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4470</v>
+      </c>
+      <c r="I42" s="3">
+        <v>4484</v>
+      </c>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="0"/>
+        <v>6028.6</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6280</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5873</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5906</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5855</v>
+      </c>
+      <c r="I43" s="3">
+        <v>6229</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="2"/>
+        <v>2048</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="0"/>
+        <v>11146.4</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12086</v>
+      </c>
+      <c r="F44" s="3">
+        <v>10917</v>
+      </c>
+      <c r="G44" s="3">
+        <v>10844</v>
+      </c>
+      <c r="H44" s="3">
+        <v>10849</v>
+      </c>
+      <c r="I44" s="3">
+        <v>11036</v>
+      </c>
+      <c r="J44" s="37"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="0"/>
+        <v>12233.2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12374</v>
+      </c>
+      <c r="F45" s="3">
+        <v>12155</v>
+      </c>
+      <c r="G45" s="3">
+        <v>12254</v>
+      </c>
+      <c r="H45" s="3">
+        <v>12246</v>
+      </c>
+      <c r="I45" s="3">
+        <v>12137</v>
+      </c>
+      <c r="J45" s="37"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" ref="C46:C56" si="3">C45*2</f>
+        <v>2</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="0"/>
+        <v>12187.8</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12352</v>
+      </c>
+      <c r="F46" s="3">
+        <v>12737</v>
+      </c>
+      <c r="G46" s="3">
+        <v>11845</v>
+      </c>
+      <c r="H46" s="3">
+        <v>12232</v>
+      </c>
+      <c r="I46" s="3">
+        <v>11773</v>
+      </c>
+      <c r="J46" s="37"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="0"/>
+        <v>7347</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7492</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7339</v>
+      </c>
+      <c r="G47" s="3">
+        <v>7416</v>
+      </c>
+      <c r="H47" s="3">
+        <v>7481</v>
+      </c>
+      <c r="I47" s="3">
+        <v>7007</v>
+      </c>
+      <c r="J47" s="37"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="0"/>
+        <v>4544.6000000000004</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4499</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4609</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4647</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4474</v>
+      </c>
+      <c r="I48" s="3">
+        <v>4494</v>
+      </c>
+      <c r="J48" s="37"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="0"/>
+        <v>3048.2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2967</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3089</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3020</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3043</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3122</v>
+      </c>
+      <c r="J49" s="37"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" s="6">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="0"/>
+        <v>2524.1999999999998</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2604</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2512</v>
+      </c>
+      <c r="G50" s="3">
+        <v>2531</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2498</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2476</v>
+      </c>
+      <c r="J50" s="37"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" s="6">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="D51" s="5">
+        <f>AVERAGE(E51:J51)</f>
+        <v>2411.6</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2512</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2361</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2366</v>
+      </c>
+      <c r="H51" s="3">
+        <v>2443</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2376</v>
+      </c>
+      <c r="J51" s="37"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="6">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" ref="D52:D115" si="4">AVERAGE(E52:J52)</f>
+        <v>2393</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2468</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2367</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2397</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2307</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2426</v>
+      </c>
+      <c r="J52" s="37"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" s="6">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="4"/>
+        <v>2522.8000000000002</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2609</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2530</v>
+      </c>
+      <c r="G53" s="3">
+        <v>2569</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2489</v>
+      </c>
+      <c r="I53" s="3">
+        <v>2417</v>
+      </c>
+      <c r="J53" s="37"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="4"/>
+        <v>2938.2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2985</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2876</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2866</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2971</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2993</v>
+      </c>
+      <c r="J54" s="37"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" s="6">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="4"/>
+        <v>3942.2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>4025</v>
+      </c>
+      <c r="F55" s="3">
+        <v>3928</v>
+      </c>
+      <c r="G55" s="3">
+        <v>3902</v>
+      </c>
+      <c r="H55" s="3">
+        <v>3859</v>
+      </c>
+      <c r="I55" s="3">
+        <v>3997</v>
+      </c>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" s="6">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="4"/>
+        <v>6966.6</v>
+      </c>
+      <c r="E56" s="3">
+        <v>7133</v>
+      </c>
+      <c r="F56" s="3">
+        <v>6871</v>
+      </c>
+      <c r="G56" s="3">
+        <v>6825</v>
+      </c>
+      <c r="H56" s="3">
+        <v>7114</v>
+      </c>
+      <c r="I56" s="3">
+        <v>6890</v>
+      </c>
+      <c r="J56" s="37"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="4"/>
+        <v>12167.4</v>
+      </c>
+      <c r="E57" s="3">
+        <v>12143</v>
+      </c>
+      <c r="F57" s="3">
+        <v>11897</v>
+      </c>
+      <c r="G57" s="3">
+        <v>12203</v>
+      </c>
+      <c r="H57" s="3">
+        <v>12312</v>
+      </c>
+      <c r="I57" s="3">
+        <v>12282</v>
+      </c>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" s="6">
+        <f t="shared" ref="C58:C68" si="5">C57*2</f>
+        <v>2</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="4"/>
+        <v>11009.8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>11208</v>
+      </c>
+      <c r="F58" s="3">
+        <v>11068</v>
+      </c>
+      <c r="G58" s="3">
+        <v>10802</v>
+      </c>
+      <c r="H58" s="3">
+        <v>10845</v>
+      </c>
+      <c r="I58" s="3">
+        <v>11126</v>
+      </c>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="4"/>
+        <v>7432.2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7358</v>
+      </c>
+      <c r="F59" s="3">
+        <v>7260</v>
+      </c>
+      <c r="G59" s="3">
+        <v>7352</v>
+      </c>
+      <c r="H59" s="3">
+        <v>7469</v>
+      </c>
+      <c r="I59" s="3">
+        <v>7722</v>
+      </c>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" s="6">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="4"/>
+        <v>4329.6000000000004</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4203</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4291</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4362</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4298</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4494</v>
+      </c>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" s="6">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="4"/>
+        <v>2706.4</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2686</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2698</v>
+      </c>
+      <c r="G61" s="3">
+        <v>2674</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2652</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2822</v>
+      </c>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" s="6">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="4"/>
+        <v>2012.4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2062</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1972</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1997</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2053</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1978</v>
+      </c>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" s="6">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="4"/>
+        <v>1928.6</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2078</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2073</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1831</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1810</v>
+      </c>
+      <c r="I63" s="3">
+        <v>1851</v>
+      </c>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" s="6">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="D64" s="5">
+        <f>AVERAGE(E64:I64)</f>
+        <v>1875.8</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1825</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1884</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1887</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1883</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" s="6">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="D65" s="5">
+        <f>AVERAGE(E65:I65)</f>
+        <v>1907.6</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1911</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1906</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1888</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1918</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1915</v>
+      </c>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" s="6">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="D66" s="5">
+        <f>AVERAGE(E66:I66)</f>
+        <v>2141.1999999999998</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2092</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2111</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2139</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2153</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2211</v>
+      </c>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="D67" s="5">
+        <f>AVERAGE(E67:I67)</f>
+        <v>2933</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2956</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2894</v>
+      </c>
+      <c r="G67" s="3">
+        <v>2962</v>
+      </c>
+      <c r="H67" s="3">
+        <v>2942</v>
+      </c>
+      <c r="I67" s="3">
+        <v>2911</v>
+      </c>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" si="5"/>
+        <v>2048</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="4"/>
+        <v>5229.6000000000004</v>
+      </c>
+      <c r="E68" s="3">
+        <v>5089</v>
+      </c>
+      <c r="F68" s="3">
+        <v>5121</v>
+      </c>
+      <c r="G68" s="3">
+        <v>5136</v>
+      </c>
+      <c r="H68" s="3">
+        <v>5337</v>
+      </c>
+      <c r="I68" s="3">
+        <v>5465</v>
+      </c>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="4"/>
+        <v>12138.2</v>
+      </c>
+      <c r="E69" s="3">
+        <v>12010</v>
+      </c>
+      <c r="F69" s="3">
+        <v>12051</v>
+      </c>
+      <c r="G69" s="3">
+        <v>12125</v>
+      </c>
+      <c r="H69" s="3">
+        <v>12329</v>
+      </c>
+      <c r="I69" s="3">
+        <v>12176</v>
+      </c>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" s="6">
+        <f t="shared" ref="C70:C80" si="6">C69*2</f>
+        <v>2</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="4"/>
+        <v>10995.6</v>
+      </c>
+      <c r="E70" s="3">
+        <v>11591</v>
+      </c>
+      <c r="F70" s="3">
+        <v>10874</v>
+      </c>
+      <c r="G70" s="3">
+        <v>10957</v>
+      </c>
+      <c r="H70" s="3">
+        <v>10781</v>
+      </c>
+      <c r="I70" s="3">
+        <v>10775</v>
+      </c>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" s="6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="4"/>
+        <v>7418.6</v>
+      </c>
+      <c r="E71" s="3">
+        <v>7504</v>
+      </c>
+      <c r="F71" s="3">
+        <v>7409</v>
+      </c>
+      <c r="G71" s="3">
+        <v>7451</v>
+      </c>
+      <c r="H71" s="3">
+        <v>7354</v>
+      </c>
+      <c r="I71" s="3">
+        <v>7375</v>
+      </c>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72" s="6">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="4"/>
+        <v>4405.8</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4609</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4324</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4392</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4290</v>
+      </c>
+      <c r="I72" s="3">
+        <v>4414</v>
+      </c>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73" s="6">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="4"/>
+        <v>2889.2</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2956</v>
+      </c>
+      <c r="F73" s="3">
+        <v>2865</v>
+      </c>
+      <c r="G73" s="3">
+        <v>2976</v>
+      </c>
+      <c r="H73" s="3">
+        <v>2843</v>
+      </c>
+      <c r="I73" s="3">
+        <v>2806</v>
+      </c>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74" s="6">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="4"/>
+        <v>2239</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2372</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2141</v>
+      </c>
+      <c r="G74" s="3">
+        <v>2209</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2241</v>
+      </c>
+      <c r="I74" s="3">
+        <v>2232</v>
+      </c>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" s="6">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="4"/>
+        <v>2064.8000000000002</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2124</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2016</v>
+      </c>
+      <c r="G75" s="3">
+        <v>2044</v>
+      </c>
+      <c r="H75" s="3">
+        <v>2024</v>
+      </c>
+      <c r="I75" s="3">
+        <v>2116</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76" s="6">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="4"/>
+        <v>2063</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2101</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2041</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2028</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1996</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2149</v>
+      </c>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77" s="6">
+        <f t="shared" si="6"/>
+        <v>256</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="4"/>
+        <v>2058.4</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2076</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2054</v>
+      </c>
+      <c r="G77" s="3">
+        <v>2091</v>
+      </c>
+      <c r="H77" s="3">
+        <v>2023</v>
+      </c>
+      <c r="I77" s="3">
+        <v>2048</v>
+      </c>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" s="6">
+        <f t="shared" si="6"/>
+        <v>512</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="4"/>
+        <v>2186.6</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2222</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2151</v>
+      </c>
+      <c r="G78" s="3">
+        <v>2173</v>
+      </c>
+      <c r="H78" s="3">
+        <v>2187</v>
+      </c>
+      <c r="I78" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79" s="6">
+        <f t="shared" si="6"/>
+        <v>1024</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="4"/>
+        <v>2878.4</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3019</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2814</v>
+      </c>
+      <c r="G79" s="3">
+        <v>2880</v>
+      </c>
+      <c r="H79" s="3">
+        <v>2833</v>
+      </c>
+      <c r="I79" s="3">
+        <v>2846</v>
+      </c>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" s="6">
+        <f t="shared" si="6"/>
+        <v>2048</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="4"/>
+        <v>4891</v>
+      </c>
+      <c r="E80" s="3">
+        <v>5050</v>
+      </c>
+      <c r="F80" s="3">
+        <v>4875</v>
+      </c>
+      <c r="G80" s="3">
+        <v>4902</v>
+      </c>
+      <c r="H80" s="3">
+        <v>4826</v>
+      </c>
+      <c r="I80" s="3">
+        <v>4802</v>
+      </c>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="4"/>
+        <v>12126.6</v>
+      </c>
+      <c r="E81" s="3">
+        <v>12373</v>
+      </c>
+      <c r="F81" s="3">
+        <v>12104</v>
+      </c>
+      <c r="G81" s="3">
+        <v>12004</v>
+      </c>
+      <c r="H81" s="3">
+        <v>11997</v>
+      </c>
+      <c r="I81" s="3">
+        <v>12155</v>
+      </c>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82" s="6">
+        <f t="shared" ref="C82:C92" si="7">C81*2</f>
+        <v>2</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="4"/>
+        <v>10896.2</v>
+      </c>
+      <c r="E82" s="3">
+        <v>11165</v>
+      </c>
+      <c r="F82" s="3">
+        <v>10807</v>
+      </c>
+      <c r="G82" s="3">
+        <v>10975</v>
+      </c>
+      <c r="H82" s="3">
+        <v>10707</v>
+      </c>
+      <c r="I82" s="3">
+        <v>10827</v>
+      </c>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83" s="6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="4"/>
+        <v>7399.2</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7332</v>
+      </c>
+      <c r="F83" s="3">
+        <v>7538</v>
+      </c>
+      <c r="G83" s="3">
+        <v>7297</v>
+      </c>
+      <c r="H83" s="3">
+        <v>7199</v>
+      </c>
+      <c r="I83" s="3">
+        <v>7630</v>
+      </c>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" s="6">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="4"/>
+        <v>4425.8</v>
+      </c>
+      <c r="E84" s="3">
+        <v>4649</v>
+      </c>
+      <c r="F84" s="3">
+        <v>4366</v>
+      </c>
+      <c r="G84" s="3">
+        <v>4455</v>
+      </c>
+      <c r="H84" s="3">
+        <v>4292</v>
+      </c>
+      <c r="I84" s="3">
+        <v>4367</v>
+      </c>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85" s="6">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" si="4"/>
+        <v>3028</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3139</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2899</v>
+      </c>
+      <c r="G85" s="3">
+        <v>3023</v>
+      </c>
+      <c r="H85" s="3">
+        <v>3039</v>
+      </c>
+      <c r="I85" s="3">
+        <v>3040</v>
+      </c>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86" s="6">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="D86" s="5">
+        <f t="shared" si="4"/>
+        <v>2606.8000000000002</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2601</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2947</v>
+      </c>
+      <c r="G86" s="3">
+        <v>2463</v>
+      </c>
+      <c r="H86" s="3">
+        <v>2494</v>
+      </c>
+      <c r="I86" s="3">
+        <v>2529</v>
+      </c>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87" s="6">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" si="4"/>
+        <v>2284.6</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2318</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2259</v>
+      </c>
+      <c r="G87" s="3">
+        <v>2294</v>
+      </c>
+      <c r="H87" s="3">
+        <v>2256</v>
+      </c>
+      <c r="I87" s="3">
+        <v>2296</v>
+      </c>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="C88" s="6">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="D88" s="5">
+        <f t="shared" si="4"/>
+        <v>2266</v>
+      </c>
+      <c r="E88" s="3">
+        <v>2235</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2234</v>
+      </c>
+      <c r="G88" s="3">
+        <v>2284</v>
+      </c>
+      <c r="H88" s="3">
+        <v>2331</v>
+      </c>
+      <c r="I88" s="3">
+        <v>2246</v>
+      </c>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89" s="6">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="4"/>
+        <v>2280.8000000000002</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2266</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2362</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2250</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2223</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2303</v>
+      </c>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90" s="6">
+        <f t="shared" si="7"/>
+        <v>512</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="4"/>
+        <v>2401</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2371</v>
+      </c>
+      <c r="F90" s="3">
+        <v>2381</v>
+      </c>
+      <c r="G90" s="3">
+        <v>2370</v>
+      </c>
+      <c r="H90" s="3">
+        <v>2461</v>
+      </c>
+      <c r="I90" s="3">
+        <v>2422</v>
+      </c>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91" s="6">
+        <f t="shared" si="7"/>
+        <v>1024</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" si="4"/>
+        <v>2938.2</v>
+      </c>
+      <c r="E91" s="3">
+        <v>3059</v>
+      </c>
+      <c r="F91" s="3">
+        <v>2873</v>
+      </c>
+      <c r="G91" s="3">
+        <v>2894</v>
+      </c>
+      <c r="H91" s="3">
+        <v>2947</v>
+      </c>
+      <c r="I91" s="3">
+        <v>2918</v>
+      </c>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92" s="6">
+        <f t="shared" si="7"/>
+        <v>2048</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="4"/>
+        <v>4770.3999999999996</v>
+      </c>
+      <c r="E92" s="3">
+        <v>4790</v>
+      </c>
+      <c r="F92" s="3">
+        <v>4865</v>
+      </c>
+      <c r="G92" s="3">
+        <v>4655</v>
+      </c>
+      <c r="H92" s="3">
+        <v>4726</v>
+      </c>
+      <c r="I92" s="3">
+        <v>4816</v>
+      </c>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93" s="6">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5">
+        <f t="shared" si="4"/>
+        <v>12194.4</v>
+      </c>
+      <c r="E93" s="3">
+        <v>12094</v>
+      </c>
+      <c r="F93" s="3">
+        <v>12231</v>
+      </c>
+      <c r="G93" s="3">
+        <v>12584</v>
+      </c>
+      <c r="H93" s="3">
+        <v>11822</v>
+      </c>
+      <c r="I93" s="3">
+        <v>12241</v>
+      </c>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94" s="6">
+        <f t="shared" ref="C94:C104" si="8">C93*2</f>
+        <v>2</v>
+      </c>
+      <c r="D94" s="5">
+        <f t="shared" si="4"/>
+        <v>10951.2</v>
+      </c>
+      <c r="E94" s="3">
+        <v>11031</v>
+      </c>
+      <c r="F94" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>11064</v>
+      </c>
+      <c r="H94" s="3">
+        <v>11098</v>
+      </c>
+      <c r="I94" s="3">
+        <v>10963</v>
+      </c>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95">
+        <v>7</v>
+      </c>
+      <c r="C95" s="6">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="D95" s="5">
+        <f t="shared" si="4"/>
+        <v>7258.8</v>
+      </c>
+      <c r="E95" s="3">
+        <v>7253</v>
+      </c>
+      <c r="F95" s="3">
+        <v>7298</v>
+      </c>
+      <c r="G95" s="3">
+        <v>7149</v>
+      </c>
+      <c r="H95" s="3">
+        <v>7303</v>
+      </c>
+      <c r="I95" s="3">
+        <v>7291</v>
+      </c>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96" s="6">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="D96" s="5">
+        <f t="shared" si="4"/>
+        <v>4438.6000000000004</v>
+      </c>
+      <c r="E96" s="3">
+        <v>4493</v>
+      </c>
+      <c r="F96" s="3">
+        <v>4511</v>
+      </c>
+      <c r="G96" s="3">
+        <v>4380</v>
+      </c>
+      <c r="H96" s="3">
+        <v>4379</v>
+      </c>
+      <c r="I96" s="3">
+        <v>4430</v>
+      </c>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97" s="6">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="D97" s="5">
+        <f t="shared" si="4"/>
+        <v>3092</v>
+      </c>
+      <c r="E97" s="3">
+        <v>3131</v>
+      </c>
+      <c r="F97" s="3">
+        <v>3146</v>
+      </c>
+      <c r="G97" s="3">
+        <v>3047</v>
+      </c>
+      <c r="H97" s="3">
+        <v>3023</v>
+      </c>
+      <c r="I97" s="3">
+        <v>3113</v>
+      </c>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98" s="6">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="D98" s="5">
+        <f t="shared" si="4"/>
+        <v>2614.1999999999998</v>
+      </c>
+      <c r="E98" s="3">
+        <v>2634</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2621</v>
+      </c>
+      <c r="G98" s="3">
+        <v>2578</v>
+      </c>
+      <c r="H98" s="3">
+        <v>2671</v>
+      </c>
+      <c r="I98" s="3">
+        <v>2567</v>
+      </c>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99" s="6">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="D99" s="5">
+        <f t="shared" si="4"/>
+        <v>2471.1999999999998</v>
+      </c>
+      <c r="E99" s="3">
+        <v>2480</v>
+      </c>
+      <c r="F99" s="3">
+        <v>2473</v>
+      </c>
+      <c r="G99" s="3">
+        <v>2472</v>
+      </c>
+      <c r="H99" s="3">
+        <v>2446</v>
+      </c>
+      <c r="I99" s="3">
+        <v>2485</v>
+      </c>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100" s="6">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="D100" s="5">
+        <f t="shared" si="4"/>
+        <v>2463.8000000000002</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2643</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2424</v>
+      </c>
+      <c r="G100" s="3">
+        <v>2418</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2415</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2419</v>
+      </c>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101">
+        <v>7</v>
+      </c>
+      <c r="C101" s="6">
+        <f t="shared" si="8"/>
+        <v>256</v>
+      </c>
+      <c r="D101" s="5">
+        <f t="shared" si="4"/>
+        <v>2422.6</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2418</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2422</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2416</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2427</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2430</v>
+      </c>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102" s="6">
+        <f t="shared" si="8"/>
+        <v>512</v>
+      </c>
+      <c r="D102" s="5">
+        <f t="shared" si="4"/>
+        <v>2587.6</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2554</v>
+      </c>
+      <c r="F102" s="3">
+        <v>2567</v>
+      </c>
+      <c r="G102" s="3">
+        <v>2598</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2525</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2694</v>
+      </c>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103" s="6">
+        <f t="shared" si="8"/>
+        <v>1024</v>
+      </c>
+      <c r="D103" s="5">
+        <f t="shared" si="4"/>
+        <v>3113</v>
+      </c>
+      <c r="E103" s="3">
+        <v>3224</v>
+      </c>
+      <c r="F103" s="3">
+        <v>2993</v>
+      </c>
+      <c r="G103" s="3">
+        <v>3110</v>
+      </c>
+      <c r="H103" s="3">
+        <v>3256</v>
+      </c>
+      <c r="I103" s="3">
+        <v>2982</v>
+      </c>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104" s="6">
+        <f t="shared" si="8"/>
+        <v>2048</v>
+      </c>
+      <c r="D104" s="5">
+        <f t="shared" si="4"/>
+        <v>4588.8</v>
+      </c>
+      <c r="E104" s="3">
+        <v>4558</v>
+      </c>
+      <c r="F104" s="3">
+        <v>4579</v>
+      </c>
+      <c r="G104" s="3">
+        <v>4562</v>
+      </c>
+      <c r="H104" s="3">
+        <v>4594</v>
+      </c>
+      <c r="I104" s="3">
+        <v>4651</v>
+      </c>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105" s="6">
+        <v>1</v>
+      </c>
+      <c r="D105" s="5">
+        <f t="shared" si="4"/>
+        <v>12144.8</v>
+      </c>
+      <c r="E105" s="3">
+        <v>11828</v>
+      </c>
+      <c r="F105" s="3">
+        <v>12350</v>
+      </c>
+      <c r="G105" s="3">
+        <v>12362</v>
+      </c>
+      <c r="H105" s="3">
+        <v>12222</v>
+      </c>
+      <c r="I105" s="3">
+        <v>11962</v>
+      </c>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106" s="6">
+        <f t="shared" ref="C106:C116" si="9">C105*2</f>
+        <v>2</v>
+      </c>
+      <c r="D106" s="5">
+        <f t="shared" si="4"/>
+        <v>10953.2</v>
+      </c>
+      <c r="E106" s="3">
+        <v>11149</v>
+      </c>
+      <c r="F106" s="3">
+        <v>10938</v>
+      </c>
+      <c r="G106" s="3">
+        <v>10821</v>
+      </c>
+      <c r="H106" s="3">
+        <v>10990</v>
+      </c>
+      <c r="I106" s="3">
+        <v>10868</v>
+      </c>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="C107" s="6">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="D107" s="5">
+        <f t="shared" si="4"/>
+        <v>7369</v>
+      </c>
+      <c r="E107" s="3">
+        <v>7853</v>
+      </c>
+      <c r="F107" s="3">
+        <v>7189</v>
+      </c>
+      <c r="G107" s="3">
+        <v>7270</v>
+      </c>
+      <c r="H107" s="3">
+        <v>7111</v>
+      </c>
+      <c r="I107" s="3">
+        <v>7422</v>
+      </c>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108" s="6">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="D108" s="5">
+        <f t="shared" si="4"/>
+        <v>4444</v>
+      </c>
+      <c r="E108" s="3">
+        <v>4509</v>
+      </c>
+      <c r="F108" s="3">
+        <v>4525</v>
+      </c>
+      <c r="G108" s="3">
+        <v>4443</v>
+      </c>
+      <c r="H108" s="3">
+        <v>4355</v>
+      </c>
+      <c r="I108" s="3">
+        <v>4388</v>
+      </c>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109" s="6">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="D109" s="5">
+        <f t="shared" si="4"/>
+        <v>3211.8</v>
+      </c>
+      <c r="E109" s="3">
+        <v>3191</v>
+      </c>
+      <c r="F109" s="3">
+        <v>3279</v>
+      </c>
+      <c r="G109" s="3">
+        <v>3306</v>
+      </c>
+      <c r="H109" s="3">
+        <v>3118</v>
+      </c>
+      <c r="I109" s="3">
+        <v>3165</v>
+      </c>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110" s="6">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="D110" s="5">
+        <f>AVERAGE(E110:J110)</f>
+        <v>3075.6</v>
+      </c>
+      <c r="E110" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F110" s="3">
+        <v>3057</v>
+      </c>
+      <c r="G110" s="3">
+        <v>3053</v>
+      </c>
+      <c r="H110" s="3">
+        <v>3077</v>
+      </c>
+      <c r="I110" s="3">
+        <v>3091</v>
+      </c>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111" s="6">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="D111" s="5">
+        <f t="shared" si="4"/>
+        <v>2896.8</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2955</v>
+      </c>
+      <c r="F111" s="3">
+        <v>2864</v>
+      </c>
+      <c r="G111" s="3">
+        <v>2942</v>
+      </c>
+      <c r="H111" s="3">
+        <v>2849</v>
+      </c>
+      <c r="I111" s="3">
+        <v>2874</v>
+      </c>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112" s="6">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="D112" s="5">
+        <f t="shared" si="4"/>
+        <v>2851.2</v>
+      </c>
+      <c r="E112" s="3">
+        <v>2835</v>
+      </c>
+      <c r="F112" s="3">
+        <v>2858</v>
+      </c>
+      <c r="G112" s="3">
+        <v>2862</v>
+      </c>
+      <c r="H112" s="3">
+        <v>2846</v>
+      </c>
+      <c r="I112" s="3">
+        <v>2855</v>
+      </c>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113" s="6">
+        <f t="shared" si="9"/>
+        <v>256</v>
+      </c>
+      <c r="D113" s="5">
+        <f>AVERAGE(E113:J113)</f>
+        <v>2872.2</v>
+      </c>
+      <c r="E113" s="3">
+        <v>2803</v>
+      </c>
+      <c r="F113" s="3">
+        <v>2854</v>
+      </c>
+      <c r="G113" s="3">
+        <v>2835</v>
+      </c>
+      <c r="H113" s="3">
+        <v>2876</v>
+      </c>
+      <c r="I113" s="3">
+        <v>2993</v>
+      </c>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114">
+        <v>8</v>
+      </c>
+      <c r="C114" s="6">
+        <f t="shared" si="9"/>
+        <v>512</v>
+      </c>
+      <c r="D114" s="5">
+        <f t="shared" si="4"/>
+        <v>2920.2</v>
+      </c>
+      <c r="E114" s="3">
+        <v>2932</v>
+      </c>
+      <c r="F114" s="3">
+        <v>2915</v>
+      </c>
+      <c r="G114" s="3">
+        <v>2923</v>
+      </c>
+      <c r="H114" s="3">
+        <v>2919</v>
+      </c>
+      <c r="I114" s="3">
+        <v>2912</v>
+      </c>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115" s="6">
+        <f t="shared" si="9"/>
+        <v>1024</v>
+      </c>
+      <c r="D115" s="5">
+        <f t="shared" si="4"/>
+        <v>3347.6</v>
+      </c>
+      <c r="E115" s="3">
+        <v>3460</v>
+      </c>
+      <c r="F115" s="3">
+        <v>3341</v>
+      </c>
+      <c r="G115" s="3">
+        <v>3329</v>
+      </c>
+      <c r="H115" s="3">
+        <v>3335</v>
+      </c>
+      <c r="I115" s="3">
+        <v>3273</v>
+      </c>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116" s="6">
+        <f t="shared" si="9"/>
+        <v>2048</v>
+      </c>
+      <c r="D116" s="5">
+        <f t="shared" ref="D116" si="10">AVERAGE(E116:J116)</f>
+        <v>4593.2</v>
+      </c>
+      <c r="E116" s="3">
+        <v>4536</v>
+      </c>
+      <c r="F116" s="3">
+        <v>4616</v>
+      </c>
+      <c r="G116" s="3">
+        <v>4570</v>
+      </c>
+      <c r="H116" s="3">
+        <v>4601</v>
+      </c>
+      <c r="I116" s="3">
+        <v>4643</v>
+      </c>
+      <c r="J116" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>